--- a/scripts/Fig2/vertical_cite.xlsx
+++ b/scripts/Fig2/vertical_cite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\scmgca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD518CA-0643-443F-AB64-61E7423AD22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C2F1BF-B94E-46A3-BCCE-85C91DD80245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="111">
   <si>
     <t>id</t>
   </si>
@@ -359,6 +359,22 @@
   </si>
   <si>
     <t>TIME9</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ns</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>**</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>***</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -370,7 +386,7 @@
     <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
     <numFmt numFmtId="177" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,6 +465,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -572,7 +594,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -651,7 +673,6 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -667,28 +688,30 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -968,19 +991,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CH16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BB1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BM19" sqref="BM19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BR1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CB20" sqref="CB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="13.88671875" customWidth="1"/>
     <col min="19" max="19" width="14.33203125"/>
-    <col min="33" max="33" width="9.5546875" style="36" customWidth="1"/>
+    <col min="33" max="33" width="9.5546875" style="35" customWidth="1"/>
     <col min="47" max="47" width="14.33203125"/>
     <col min="54" max="57" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="14.44140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="62" max="64" width="10.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="14.44140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="62" max="64" width="10.33203125" style="43" bestFit="1" customWidth="1"/>
     <col min="79" max="82" width="10.21875" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1081,7 +1105,7 @@
       <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="31" t="s">
+      <c r="AG1" s="30" t="s">
         <v>32</v>
       </c>
       <c r="AH1" s="1" t="s">
@@ -1341,7 +1365,7 @@
       <c r="AF2" s="3">
         <v>0.69930000000000003</v>
       </c>
-      <c r="AG2" s="32">
+      <c r="AG2" s="31">
         <v>0.81159999999999999</v>
       </c>
       <c r="AH2" s="3">
@@ -1593,7 +1617,7 @@
       <c r="AF3" s="6">
         <v>0.66810000000000003</v>
       </c>
-      <c r="AG3" s="33">
+      <c r="AG3" s="32">
         <v>0.66259999999999997</v>
       </c>
       <c r="AH3" s="6">
@@ -1677,13 +1701,13 @@
       <c r="BH3" s="6">
         <v>0.63560000000000005</v>
       </c>
-      <c r="BI3" s="15">
+      <c r="BI3" s="39">
         <v>1.9233181553986099E-2</v>
       </c>
-      <c r="BJ3" s="39">
+      <c r="BJ3" s="40">
         <v>1.8606179753945601E-2</v>
       </c>
-      <c r="BK3" s="39">
+      <c r="BK3" s="40">
         <v>1.25066781912346E-4</v>
       </c>
       <c r="BL3" s="40">
@@ -1743,16 +1767,16 @@
       <c r="CD3" s="27">
         <v>8.5556000000000001</v>
       </c>
-      <c r="CE3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CF3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CG3" s="1" t="s">
+      <c r="CE3" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF3" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="CG3" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="CH3" s="1" t="s">
+      <c r="CH3" s="36" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1937,7 +1961,7 @@
       <c r="BH4" s="10">
         <v>0.145589215033115</v>
       </c>
-      <c r="BI4" s="41">
+      <c r="BI4" s="39">
         <v>4.6697337573189696E-6</v>
       </c>
       <c r="BJ4" s="40">
@@ -2003,16 +2027,16 @@
       <c r="CD4" s="27">
         <v>13.8889</v>
       </c>
-      <c r="CE4" s="1" t="s">
+      <c r="CE4" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="CF4" s="1" t="s">
+      <c r="CF4" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="CG4" s="1" t="s">
+      <c r="CG4" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="CH4" s="1" t="s">
+      <c r="CH4" s="36" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2197,16 +2221,16 @@
       <c r="BH5" s="12">
         <v>0.45761649100000001</v>
       </c>
-      <c r="BI5" s="41">
+      <c r="BI5" s="39">
         <v>1.2954715502939E-4</v>
       </c>
       <c r="BJ5" s="40">
         <v>1.2779558516356199E-4</v>
       </c>
-      <c r="BK5" s="39">
+      <c r="BK5" s="40">
         <v>3.14389252881127E-2</v>
       </c>
-      <c r="BL5" s="39">
+      <c r="BL5" s="40">
         <v>7.4540358008081601E-4</v>
       </c>
       <c r="BM5" s="13">
@@ -2263,16 +2287,16 @@
       <c r="CD5" s="27">
         <v>10</v>
       </c>
-      <c r="CE5" s="1" t="s">
+      <c r="CE5" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="CF5" s="1" t="s">
+      <c r="CF5" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="CG5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CH5" s="1" t="s">
+      <c r="CG5" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="CH5" s="36" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2373,7 +2397,7 @@
       <c r="AF6" s="6">
         <v>0.65690000000000004</v>
       </c>
-      <c r="AG6" s="33">
+      <c r="AG6" s="32">
         <v>0.39229999999999998</v>
       </c>
       <c r="AH6" s="6">
@@ -2457,16 +2481,16 @@
       <c r="BH6" s="6">
         <v>0.64639999999999997</v>
       </c>
-      <c r="BI6" s="42">
+      <c r="BI6" s="41">
         <v>7.0607657565178303E-5</v>
       </c>
-      <c r="BJ6" s="43">
+      <c r="BJ6" s="42">
         <v>7.3790413264637094E-5</v>
       </c>
-      <c r="BK6" s="43">
+      <c r="BK6" s="42">
         <v>6.7320360221550802E-5</v>
       </c>
-      <c r="BL6" s="43">
+      <c r="BL6" s="42">
         <v>2.04614829658327E-4</v>
       </c>
       <c r="BM6" s="4">
@@ -2523,16 +2547,16 @@
       <c r="CD6" s="27">
         <v>8.8888999999999996</v>
       </c>
-      <c r="CE6" s="1" t="s">
+      <c r="CE6" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="CF6" s="1" t="s">
+      <c r="CF6" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="CG6" s="1" t="s">
+      <c r="CG6" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="CH6" s="1" t="s">
+      <c r="CH6" s="36" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2633,7 +2657,7 @@
       <c r="AF7" s="15">
         <v>0.66158518600000005</v>
       </c>
-      <c r="AG7" s="34">
+      <c r="AG7" s="33">
         <v>0.22337754039999999</v>
       </c>
       <c r="AH7" s="15">
@@ -2717,16 +2741,16 @@
       <c r="BH7" s="15">
         <v>0.48587216370000003</v>
       </c>
-      <c r="BI7" s="44">
+      <c r="BI7" s="41">
         <v>5.4396910038739896E-3</v>
       </c>
-      <c r="BJ7" s="45">
+      <c r="BJ7" s="42">
         <v>5.3049861430739496E-3</v>
       </c>
-      <c r="BK7" s="45">
+      <c r="BK7" s="44">
         <v>9.6591073431565005E-2</v>
       </c>
-      <c r="BL7" s="43">
+      <c r="BL7" s="42">
         <v>4.54635650781866E-4</v>
       </c>
       <c r="BM7" s="17">
@@ -2783,16 +2807,16 @@
       <c r="CD7" s="27">
         <v>11.4444</v>
       </c>
-      <c r="CE7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CF7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CG7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CH7" s="1" t="s">
+      <c r="CE7" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="CF7" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="CG7" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="CH7" s="36" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2893,7 +2917,7 @@
       <c r="AF8" s="15">
         <v>0.62760134499999998</v>
       </c>
-      <c r="AG8" s="34">
+      <c r="AG8" s="33">
         <v>0.66294029809999999</v>
       </c>
       <c r="AH8" s="15">
@@ -2977,16 +3001,16 @@
       <c r="BH8" s="15">
         <v>0.56444723129999996</v>
       </c>
-      <c r="BI8" s="15">
+      <c r="BI8" s="39">
         <v>2.3537269017666901E-4</v>
       </c>
-      <c r="BJ8" s="39">
+      <c r="BJ8" s="40">
         <v>2.13139641747718E-4</v>
       </c>
-      <c r="BK8" s="39">
+      <c r="BK8" s="40">
         <v>2.4329030180086101E-4</v>
       </c>
-      <c r="BL8" s="39">
+      <c r="BL8" s="40">
         <v>1.55735497824892E-3</v>
       </c>
       <c r="BM8" s="18">
@@ -3043,16 +3067,16 @@
       <c r="CD8" s="29">
         <v>10.4444</v>
       </c>
-      <c r="CE8" s="1" t="s">
+      <c r="CE8" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="CF8" s="1" t="s">
+      <c r="CF8" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="CG8" s="1" t="s">
+      <c r="CG8" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="CH8" s="1" t="s">
+      <c r="CH8" s="36" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3153,7 +3177,7 @@
       <c r="AF9" s="15">
         <v>0.70599452019999998</v>
       </c>
-      <c r="AG9" s="34">
+      <c r="AG9" s="33">
         <v>0.3766168097</v>
       </c>
       <c r="AH9" s="15">
@@ -3237,16 +3261,16 @@
       <c r="BH9" s="15">
         <v>0.716385155</v>
       </c>
-      <c r="BI9" s="15">
+      <c r="BI9" s="45">
         <v>6.8364541575356902E-2</v>
       </c>
-      <c r="BJ9" s="39">
+      <c r="BJ9" s="46">
         <v>6.9596860870497199E-2</v>
       </c>
-      <c r="BK9" s="39">
+      <c r="BK9" s="46">
         <v>6.1700373999234601E-2</v>
       </c>
-      <c r="BL9" s="39">
+      <c r="BL9" s="46">
         <v>9.4662610277016501E-2</v>
       </c>
       <c r="BM9" s="4">
@@ -3303,17 +3327,17 @@
       <c r="CD9" s="27">
         <v>3.4443999999999999</v>
       </c>
-      <c r="CE9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CF9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CG9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CH9" s="1" t="s">
-        <v>84</v>
+      <c r="CE9" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="CF9" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="CG9" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="CH9" s="36" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:86" ht="19.2" x14ac:dyDescent="0.45">
@@ -3413,7 +3437,7 @@
       <c r="AF10" s="6">
         <v>0.63119999999999998</v>
       </c>
-      <c r="AG10" s="33">
+      <c r="AG10" s="32">
         <v>0.84670000000000001</v>
       </c>
       <c r="AH10" s="6">
@@ -3497,7 +3521,7 @@
       <c r="BH10" s="6">
         <v>0.53720000000000001</v>
       </c>
-      <c r="BI10" s="41">
+      <c r="BI10" s="39">
         <v>1.03157088704807E-5</v>
       </c>
       <c r="BJ10" s="40">
@@ -3563,16 +3587,16 @@
       <c r="CD10" s="27">
         <v>10</v>
       </c>
-      <c r="CE10" s="1" t="s">
+      <c r="CE10" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="CF10" s="1" t="s">
+      <c r="CF10" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="CG10" s="1" t="s">
+      <c r="CG10" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="CH10" s="1" t="s">
+      <c r="CH10" s="36" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3673,7 +3697,7 @@
       <c r="AF11" s="15">
         <v>0.62709999999999999</v>
       </c>
-      <c r="AG11" s="35">
+      <c r="AG11" s="34">
         <v>0.37780000000000002</v>
       </c>
       <c r="AH11" s="20">
@@ -3757,16 +3781,16 @@
       <c r="BH11" s="15">
         <v>0.54259999999999997</v>
       </c>
-      <c r="BI11" s="15">
+      <c r="BI11" s="39">
         <v>1.2421911342277701E-3</v>
       </c>
-      <c r="BJ11" s="39">
+      <c r="BJ11" s="40">
         <v>1.22762763962684E-3</v>
       </c>
-      <c r="BK11" s="39">
+      <c r="BK11" s="40">
         <v>3.5129422969449298E-3</v>
       </c>
-      <c r="BL11" s="39">
+      <c r="BL11" s="40">
         <v>1.0471527456786501E-2</v>
       </c>
       <c r="BM11" s="4">
@@ -3823,17 +3847,17 @@
       <c r="CD11" s="27">
         <v>6.7778</v>
       </c>
-      <c r="CE11" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="CF11" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="CG11" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="CH11" s="30" t="s">
-        <v>85</v>
+      <c r="CE11" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="CF11" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="CG11" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="CH11" s="36" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:86" ht="19.2" x14ac:dyDescent="0.45">
@@ -3933,7 +3957,7 @@
       <c r="AF12" s="6">
         <v>0.67210000000000003</v>
       </c>
-      <c r="AG12" s="33">
+      <c r="AG12" s="32">
         <v>0.55689999999999995</v>
       </c>
       <c r="AH12" s="6">
@@ -4017,7 +4041,7 @@
       <c r="BH12" s="6">
         <v>0.5746</v>
       </c>
-      <c r="BI12" s="41">
+      <c r="BI12" s="39">
         <v>1.15177604544907E-3</v>
       </c>
       <c r="BJ12" s="40">
@@ -4026,7 +4050,7 @@
       <c r="BK12" s="40">
         <v>3.9999746159250199E-4</v>
       </c>
-      <c r="BL12" s="39">
+      <c r="BL12" s="46">
         <v>0.82665015451456503</v>
       </c>
       <c r="BM12" s="19">
@@ -4083,16 +4107,16 @@
       <c r="CD12" s="27">
         <v>8.4443999999999999</v>
       </c>
-      <c r="CE12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CF12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CG12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CH12" s="1" t="s">
+      <c r="CE12" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="CF12" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="CG12" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="CH12" s="36" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4193,7 +4217,7 @@
       <c r="AF13" s="6">
         <v>0.76380000000000003</v>
       </c>
-      <c r="AG13" s="33">
+      <c r="AG13" s="32">
         <v>0.55379999999999996</v>
       </c>
       <c r="AH13" s="6">
@@ -4277,16 +4301,16 @@
       <c r="BH13" s="6">
         <v>0.76480000000000004</v>
       </c>
-      <c r="BI13" s="15">
+      <c r="BI13" s="45">
         <v>0.19459956059909</v>
       </c>
-      <c r="BJ13" s="39">
+      <c r="BJ13" s="46">
         <v>0.18188603435638501</v>
       </c>
-      <c r="BK13" s="39">
+      <c r="BK13" s="46">
         <v>0.77232132408842502</v>
       </c>
-      <c r="BL13" s="39">
+      <c r="BL13" s="46">
         <v>0.22395051928495399</v>
       </c>
       <c r="BM13" s="19">
@@ -4343,17 +4367,17 @@
       <c r="CD13" s="27">
         <v>4.5556000000000001</v>
       </c>
-      <c r="CE13" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CF13" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CG13" s="1" t="s">
+      <c r="CE13" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="CF13" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="CG13" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="CH13" s="1" t="s">
-        <v>97</v>
+      <c r="CH13" s="36" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:86" ht="15.6" x14ac:dyDescent="0.25">
@@ -4453,7 +4477,7 @@
       <c r="AF14" s="21">
         <v>0.69679999999999997</v>
       </c>
-      <c r="AG14" s="34">
+      <c r="AG14" s="33">
         <v>0.67459999999999998</v>
       </c>
       <c r="AH14" s="21">
@@ -4537,16 +4561,16 @@
       <c r="BH14" s="21">
         <v>0.61780000000000002</v>
       </c>
-      <c r="BI14" s="15">
+      <c r="BI14" s="45">
         <v>9.1967256654805304E-2</v>
       </c>
-      <c r="BJ14" s="39">
+      <c r="BJ14" s="46">
         <v>9.0970243660262906E-2</v>
       </c>
-      <c r="BK14" s="39">
+      <c r="BK14" s="46">
         <v>0.10088571417162299</v>
       </c>
-      <c r="BL14" s="39">
+      <c r="BL14" s="46">
         <v>0.12743439648285801</v>
       </c>
       <c r="BM14" s="4">
@@ -4603,17 +4627,17 @@
       <c r="CD14" s="27">
         <v>4.2222</v>
       </c>
-      <c r="CE14" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CF14" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CG14" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CH14" s="1" t="s">
-        <v>97</v>
+      <c r="CE14" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="CF14" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="CG14" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="CH14" s="36" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:86" ht="19.2" x14ac:dyDescent="0.45">
@@ -4713,7 +4737,7 @@
       <c r="AF15" s="6">
         <v>0.66090000000000004</v>
       </c>
-      <c r="AG15" s="33">
+      <c r="AG15" s="32">
         <v>0.39190000000000003</v>
       </c>
       <c r="AH15" s="6">
@@ -4797,7 +4821,7 @@
       <c r="BH15" s="6">
         <v>0.63019999999999998</v>
       </c>
-      <c r="BI15" s="41">
+      <c r="BI15" s="39">
         <v>2.2579135277534201E-4</v>
       </c>
       <c r="BJ15" s="40">
@@ -4806,7 +4830,7 @@
       <c r="BK15" s="40">
         <v>1.4552227032137901E-3</v>
       </c>
-      <c r="BL15" s="39">
+      <c r="BL15" s="40">
         <v>3.5362404230269702E-3</v>
       </c>
       <c r="BM15" s="19">
@@ -4863,17 +4887,17 @@
       <c r="CD15" s="27">
         <v>7.8888999999999996</v>
       </c>
-      <c r="CE15" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CF15" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CG15" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CH15" s="1" t="s">
-        <v>85</v>
+      <c r="CE15" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="CF15" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="CG15" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="CH15" s="36" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:86" ht="15.6" x14ac:dyDescent="0.25">
@@ -5057,16 +5081,16 @@
       <c r="BH16" s="7">
         <v>0.59771916759999999</v>
       </c>
-      <c r="BI16" s="41">
+      <c r="BI16" s="39">
         <v>1.00764878947843E-3</v>
       </c>
-      <c r="BJ16" s="39">
+      <c r="BJ16" s="40">
         <v>2.1068237662111799E-3</v>
       </c>
-      <c r="BK16" s="39">
+      <c r="BK16" s="40">
         <v>1.50157472513077E-2</v>
       </c>
-      <c r="BL16" s="39">
+      <c r="BL16" s="40">
         <v>1.2630542097306001E-3</v>
       </c>
       <c r="BM16" s="4">
@@ -5123,17 +5147,17 @@
       <c r="CD16" s="27">
         <v>9</v>
       </c>
-      <c r="CE16" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CF16" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CG16" s="1" t="s">
+      <c r="CE16" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="CF16" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="CG16" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="CH16" s="1" t="s">
-        <v>84</v>
+      <c r="CH16" s="36" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
